--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unesco.sharepoint.com/sites/MontevideoTeam/Shared Documents/MaB/00.Database/1.MaB-API/MaB-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1003" documentId="8_{0D84168F-6C97-4B71-9D33-29523ED29034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85208772-8BCA-465A-9B93-FEE3013454BC}"/>
+  <xr:revisionPtr revIDLastSave="1131" documentId="8_{0D84168F-6C97-4B71-9D33-29523ED29034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CCBEAD-FD33-47A8-80B9-F2A364AA84A7}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{85CD61FC-0185-45B9-BBE6-1C74E6F4F638}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" activeTab="1" xr2:uid="{85CD61FC-0185-45B9-BBE6-1C74E6F4F638}"/>
   </bookViews>
   <sheets>
     <sheet name="available_lst" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="849">
   <si>
     <t>id</t>
   </si>
@@ -835,9 +835,6 @@
     <t>Macizo del Cajas</t>
   </si>
   <si>
-    <t>Bosque Seco (Part of Transboundary Bosques de Paz with Peru)</t>
-  </si>
-  <si>
     <t>Choco Andino de Pichincha</t>
   </si>
   <si>
@@ -925,9 +922,6 @@
     <t>Gran Pajatén</t>
   </si>
   <si>
-    <t>Bosques de Neblina – Selva Central</t>
-  </si>
-  <si>
     <t>Avireri-Vraem Biosphere Reserve</t>
   </si>
   <si>
@@ -2047,9 +2041,6 @@
     <t>HND-Trifinio_Fraternidad</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
     <t>HTI-La_Selle-Jaragua-Bahoruco-Enriquillo</t>
   </si>
   <si>
@@ -2362,9 +2353,6 @@
     <t>/IberoAmericaMAB/surface/HND/HND-Cacique_Lempira_Senor_De_Las_Montanas.geojson</t>
   </si>
   <si>
-    <t>/IberoAmericaMAB/surface/HTI/HTI-La_Selle-Jaragua-Bahoruco-Enriquillo.geojson</t>
-  </si>
-  <si>
     <t>/IberoAmericaMAB/surface/KNA/KNA-St_Marys.geojson</t>
   </si>
   <si>
@@ -2539,22 +2527,64 @@
     <t>/IberoAmericaMAB/surface/BRA/BRA-Mata Atlantica.geojson</t>
   </si>
   <si>
-    <t>/IberoAmericaMAB/surface/ECU/ECU-Podocarpus-El_condor.geojson</t>
-  </si>
-  <si>
     <t>/IberoAmericaMAB/surface/ECU/ECU-Bosque_Seco.geojson</t>
   </si>
   <si>
     <t>/IberoAmericaMAB/surface/ECU/ECU-Choco_Andino_De_Pichincha.geojson</t>
   </si>
   <si>
-    <t>/IberoAmericaMAB/surface/MEX/MEX-Islas_Del_Golfo_De_California.geojson</t>
-  </si>
-  <si>
     <t>/IberoAmericaMAB/surface/MEX/MEX-Cuatrocienagas.geojson</t>
   </si>
   <si>
     <t>Transboundary</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/CRI/CRI-Savegre.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/HND/HND-San_Marcos_De_Colon.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/MEX/MEX-Maipi.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/MEX/MEX-Isla_Cozumel.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/CHL/CHL-Archipielago_De_Juan_Fernandez.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/ECU/ECU-Macizo_Del_Cajas.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/ECU/ECU-Podocarpus-El_Condor.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/TRANSBOUNDARY/ECU_PER-Bosques_De_Paz.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/SLV/SLV-Trifinio_Fraternidad.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/HND/HND-Trifinio_Fraternidad.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/GTM/GTM-Trifinio_Fraternidad.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/TRANSBOUNDARY/GTM_HND_SLV-Trifinio_Fraternidad.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/TRANSBOUNDARY/DOM_HTI-La Selle-Jaragua-Bahoruco-Enriquillo.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/HTI/HTI-La_Selle.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/PER/PER-Gran_Pajaten.geojson</t>
+  </si>
+  <si>
+    <t>/IberoAmericaMAB/surface/WITHDRAW/MEX-Islas_Del_Golfo_De_California.geojson</t>
   </si>
 </sst>
 </file>
@@ -2658,34 +2688,13 @@
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2789,6 +2798,27 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2803,77 +2833,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDAB2738-4D21-4035-9619-2DE7734B98E9}" name="Table1" displayName="Table1" ref="A1:H137" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDAB2738-4D21-4035-9619-2DE7734B98E9}" name="Table1" displayName="Table1" ref="A1:H137" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:H137" xr:uid="{CDAB2738-4D21-4035-9619-2DE7734B98E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H134">
-    <sortCondition ref="A1:A134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H137">
+    <sortCondition descending="1" ref="D1:D137"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{31D6180E-CD56-41CE-AA77-F64999A8E024}" name="id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{88B7A4E9-9D81-4869-B0BA-27D4F1E534D6}" name="country" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B63687E4-4798-4C9B-822B-797895EC75C1}" name="br_name" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3921AE67-CDB0-45FC-B792-B73A520BE3B0}" name="geojson_surface" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{5E4A03E4-95CE-4932-ADEA-694E5B8ED7BE}" name="surface_file_location" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{97CC4F7A-D6C6-4D5A-9E04-BB6FA6550518}" name="geojson_core" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{76576057-7CF0-41D9-9125-7899A1DB1C95}" name="geojson_buffer" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B6A0DD57-B933-43DC-BC0A-C340D94FF0FC}" name="comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{31D6180E-CD56-41CE-AA77-F64999A8E024}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{88B7A4E9-9D81-4869-B0BA-27D4F1E534D6}" name="country" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{B63687E4-4798-4C9B-822B-797895EC75C1}" name="br_name" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3921AE67-CDB0-45FC-B792-B73A520BE3B0}" name="geojson_surface" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5E4A03E4-95CE-4932-ADEA-694E5B8ED7BE}" name="surface_file_location" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{97CC4F7A-D6C6-4D5A-9E04-BB6FA6550518}" name="geojson_core" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{76576057-7CF0-41D9-9125-7899A1DB1C95}" name="geojson_buffer" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{B6A0DD57-B933-43DC-BC0A-C340D94FF0FC}" name="comment" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}" name="Table3" displayName="Table3" ref="A1:K137" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}" name="Table3" displayName="Table3" ref="A1:K137" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:K137" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
     <sortCondition ref="A1:A137"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" xr3:uid="{5EFDF94E-758C-4ECF-9E1E-BFA9871CE014}" name="status" dataDxfId="40"/>
-    <tableColumn id="1" xr3:uid="{770D4E21-9A0B-47DD-8DF5-E4304D959315}" name="id" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{02E8B95F-8B50-4DB8-9FC1-4AD35772B144}" name="country" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E97E4F7C-CA5F-4124-A9A9-8692216C7BB4}" name="iso2c" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{94F79DF6-66D0-42A0-8D28-F20A9FF47A6F}" name="iso3c" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{4C4EEF9C-D388-428D-A24C-0629A9447E3A}" name="name" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{68C0B232-8561-4059-A5E3-4A45760254F2}" name="designated_year" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{7FDCC376-33B1-456B-AC81-1C7A4952D958}" name="unesco_url" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{0333D1A1-7B00-463A-9B93-17B6A2B16FEF}" name="handle" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{6D0F62AB-EE01-42EE-989F-4400D6328D5D}" name="periodic_reviews_available" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{B28AEA32-51EC-48C5-9BA6-EF26AC6E7D8A}" name="lastupdate_date" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{5EFDF94E-758C-4ECF-9E1E-BFA9871CE014}" name="status" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{770D4E21-9A0B-47DD-8DF5-E4304D959315}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{02E8B95F-8B50-4DB8-9FC1-4AD35772B144}" name="country" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{E97E4F7C-CA5F-4124-A9A9-8692216C7BB4}" name="iso2c" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{94F79DF6-66D0-42A0-8D28-F20A9FF47A6F}" name="iso3c" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{4C4EEF9C-D388-428D-A24C-0629A9447E3A}" name="name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{68C0B232-8561-4059-A5E3-4A45760254F2}" name="designated_year" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{7FDCC376-33B1-456B-AC81-1C7A4952D958}" name="unesco_url" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{0333D1A1-7B00-463A-9B93-17B6A2B16FEF}" name="handle" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{6D0F62AB-EE01-42EE-989F-4400D6328D5D}" name="periodic_reviews_available" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{B28AEA32-51EC-48C5-9BA6-EF26AC6E7D8A}" name="lastupdate_date" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}" name="Table4" displayName="Table4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}" name="Table4" displayName="Table4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:H11" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9B819798-564C-412D-A4B0-1108C26DC434}" name="id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{CA8C1EB9-A593-4DB1-A357-D84BFA7C788D}" name="country" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4EE7F5F0-D781-49AF-B4EC-4A1A8E5E913D}" name="iso2c" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{4DD2419C-5216-4D5A-89E0-185C9B8C194B}" name="iso3c" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{207933B0-0BC5-4740-8D0A-3035C3F1C3C6}" name="name" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{B103807B-5A73-426D-9073-48F568716524}" name="year" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{8ECC6FAA-E805-4DE1-97BD-31C0C5EED76B}" name="transboundary" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{D02D9751-A22B-46DC-8BD5-66A6AAAE15C6}" name="comment" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{9B819798-564C-412D-A4B0-1108C26DC434}" name="id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{CA8C1EB9-A593-4DB1-A357-D84BFA7C788D}" name="country" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4EE7F5F0-D781-49AF-B4EC-4A1A8E5E913D}" name="iso2c" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{4DD2419C-5216-4D5A-89E0-185C9B8C194B}" name="iso3c" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{207933B0-0BC5-4740-8D0A-3035C3F1C3C6}" name="name" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{B103807B-5A73-426D-9073-48F568716524}" name="year" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{8ECC6FAA-E805-4DE1-97BD-31C0C5EED76B}" name="transboundary" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D02D9751-A22B-46DC-8BD5-66A6AAAE15C6}" name="comment" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:H23" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6D02B61A-B373-44F5-9078-F38DB1F4F060}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{808668E7-3AAD-42AC-8DCE-7EBA1725DEF3}" name="name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1D013C41-AD67-44AF-95D9-85F43F6FDA94}" name="year" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{ACA2396B-471B-469E-9973-ACBB30A8F4B0}" name="sheet" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{916D6E94-F2C1-4887-AD7F-83009D1229BA}" name="key" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{EA2D7BCD-DFD9-4C2F-BBCD-08B0D8BBB01A}" name="old_value" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{61B28554-9F4D-42CF-83E2-9EF0145636B4}" name="new_value" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6429DE8E-968A-4A34-8259-AEBA06A1520F}" name="comment" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6D02B61A-B373-44F5-9078-F38DB1F4F060}" name="id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{808668E7-3AAD-42AC-8DCE-7EBA1725DEF3}" name="name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1D013C41-AD67-44AF-95D9-85F43F6FDA94}" name="year" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{ACA2396B-471B-469E-9973-ACBB30A8F4B0}" name="sheet" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{916D6E94-F2C1-4887-AD7F-83009D1229BA}" name="key" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{EA2D7BCD-DFD9-4C2F-BBCD-08B0D8BBB01A}" name="old_value" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{61B28554-9F4D-42CF-83E2-9EF0145636B4}" name="new_value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6429DE8E-968A-4A34-8259-AEBA06A1520F}" name="comment" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3178,17 +3208,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838904C7-54E8-4955-ACB3-A4B3D91077CE}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B137"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
@@ -3202,19 +3232,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>24</v>
@@ -3222,139 +3252,127 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>721</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>722</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>553</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>276</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>723</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>288</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>724</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>542</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>725</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>535</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>388</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>726</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>727</v>
+        <v>516</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>718</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3362,19 +3380,19 @@
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>728</v>
+        <v>516</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>719</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3382,19 +3400,19 @@
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>729</v>
+        <v>516</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>720</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3402,19 +3420,19 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>730</v>
+        <v>516</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>721</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3422,19 +3440,19 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>731</v>
+        <v>516</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3442,19 +3460,19 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>732</v>
+        <v>516</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>723</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3462,19 +3480,19 @@
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>733</v>
+        <v>516</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3482,19 +3500,19 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>734</v>
+        <v>516</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>725</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3502,19 +3520,19 @@
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>735</v>
+        <v>516</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>726</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3522,19 +3540,19 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>736</v>
+        <v>516</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>727</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3542,37 +3560,39 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>737</v>
+        <v>516</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>729</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3580,41 +3600,39 @@
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>832</v>
+        <v>516</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>730</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>738</v>
+        <v>516</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>731</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3622,19 +3640,19 @@
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>739</v>
+        <v>516</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>732</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3642,19 +3660,19 @@
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>740</v>
+        <v>516</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3662,19 +3680,19 @@
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>741</v>
+        <v>516</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>734</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3682,57 +3700,61 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>742</v>
+        <v>516</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>828</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>155</v>
+      <c r="C26" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>735</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>743</v>
+        <v>516</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>736</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3740,37 +3762,39 @@
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>737</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>744</v>
+        <v>516</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>738</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3778,19 +3802,19 @@
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>745</v>
+        <v>516</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>739</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3798,19 +3822,19 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>746</v>
+        <v>516</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>740</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3818,19 +3842,19 @@
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>179</v>
+      <c r="C32" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>747</v>
+        <v>516</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>837</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3838,19 +3862,19 @@
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>748</v>
+        <v>516</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>741</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3858,19 +3882,19 @@
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>749</v>
+        <v>516</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>742</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3878,19 +3902,19 @@
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>750</v>
+        <v>516</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3898,19 +3922,19 @@
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>751</v>
+        <v>516</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>744</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3918,19 +3942,19 @@
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>752</v>
+        <v>516</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>745</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3938,19 +3962,19 @@
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>753</v>
+        <v>516</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>746</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3958,19 +3982,19 @@
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>357</v>
+        <v>195</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>754</v>
+        <v>516</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>747</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3978,19 +4002,19 @@
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>755</v>
+        <v>516</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3998,19 +4022,19 @@
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>756</v>
+        <v>516</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4018,19 +4042,19 @@
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>521</v>
+        <v>354</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>757</v>
+        <v>516</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4038,19 +4062,19 @@
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>522</v>
+        <v>355</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>758</v>
+        <v>516</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>751</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4058,19 +4082,19 @@
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>523</v>
+        <v>356</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>759</v>
+        <v>516</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>752</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4078,37 +4102,39 @@
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>524</v>
+        <v>357</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>421</v>
+        <v>519</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>760</v>
+        <v>516</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>754</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4116,19 +4142,19 @@
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>422</v>
+        <v>520</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>761</v>
+        <v>516</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>755</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4136,19 +4162,19 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>762</v>
+        <v>516</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>756</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -4156,19 +4182,19 @@
     </row>
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>763</v>
+        <v>516</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>833</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4176,19 +4202,19 @@
     </row>
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>764</v>
+        <v>516</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4196,19 +4222,19 @@
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>765</v>
+        <v>516</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>758</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4216,19 +4242,19 @@
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>554</v>
+        <v>421</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>556</v>
+        <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>766</v>
+        <v>516</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>759</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4236,19 +4262,19 @@
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>526</v>
+        <v>422</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>767</v>
+        <v>516</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>760</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4256,19 +4282,19 @@
     </row>
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>768</v>
+        <v>516</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>761</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4276,19 +4302,19 @@
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>530</v>
+        <v>424</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>769</v>
+        <v>516</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>762</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4296,19 +4322,19 @@
     </row>
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>531</v>
+        <v>689</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>257</v>
+        <v>832</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>263</v>
+        <v>554</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>833</v>
+        <v>516</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>845</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4316,37 +4342,39 @@
     </row>
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>533</v>
+        <v>674</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>257</v>
+        <v>832</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>265</v>
+        <v>673</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>834</v>
+        <v>516</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>840</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4354,19 +4382,19 @@
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>835</v>
+        <v>516</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>764</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4374,19 +4402,19 @@
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>659</v>
+        <v>527</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>770</v>
+        <v>516</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>765</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4394,19 +4422,19 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>662</v>
+        <v>528</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>771</v>
+        <v>516</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>766</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4414,37 +4442,39 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>663</v>
+        <v>529</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>839</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>654</v>
+        <v>530</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>772</v>
+        <v>516</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4452,37 +4482,39 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>655</v>
+        <v>531</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>829</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>656</v>
+        <v>532</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>773</v>
+        <v>516</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>830</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4490,37 +4522,39 @@
     </row>
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>280</v>
+        <v>832</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>696</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>844</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>527</v>
+        <v>657</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>774</v>
+        <v>516</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>767</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4528,37 +4562,39 @@
     </row>
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>768</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>536</v>
+        <v>661</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>297</v>
+        <v>270</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>775</v>
+        <v>516</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>843</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4566,37 +4602,39 @@
     </row>
     <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>427</v>
+        <v>280</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>769</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>429</v>
+        <v>280</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>776</v>
+        <v>516</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>842</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4604,19 +4642,19 @@
     </row>
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>430</v>
+        <v>278</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>777</v>
+        <v>516</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>770</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4624,19 +4662,19 @@
     </row>
     <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>431</v>
+        <v>280</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>778</v>
+        <v>516</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>834</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4644,19 +4682,19 @@
     </row>
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>614</v>
+        <v>525</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>433</v>
+        <v>694</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>779</v>
+        <v>516</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>846</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -4664,19 +4702,19 @@
     </row>
     <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>615</v>
+        <v>534</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>434</v>
+        <v>295</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>780</v>
+        <v>516</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4684,39 +4722,39 @@
     </row>
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>436</v>
+        <v>281</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="F76" s="3"/>
+        <v>516</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>782</v>
+        <v>516</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>772</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4724,19 +4762,19 @@
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>783</v>
+        <v>516</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>773</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4744,19 +4782,19 @@
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>784</v>
+        <v>516</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>774</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4764,39 +4802,39 @@
     </row>
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>785</v>
+        <v>516</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>776</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4804,19 +4842,19 @@
     </row>
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>786</v>
+        <v>516</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>777</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4824,19 +4862,19 @@
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>787</v>
+        <v>516</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>778</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4844,19 +4882,19 @@
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>788</v>
+        <v>516</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>779</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4864,19 +4902,19 @@
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>789</v>
+        <v>516</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>780</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4884,39 +4922,39 @@
     </row>
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="F86" s="3"/>
+        <v>517</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>791</v>
+        <v>516</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>781</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4924,19 +4962,19 @@
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>792</v>
+        <v>516</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>782</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4944,19 +4982,19 @@
     </row>
     <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>837</v>
+        <v>516</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>783</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -4964,19 +5002,19 @@
     </row>
     <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>793</v>
+        <v>516</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>784</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4984,19 +5022,19 @@
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>794</v>
+        <v>516</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>785</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5004,19 +5042,19 @@
     </row>
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>795</v>
+        <v>516</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>786</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5024,19 +5062,19 @@
     </row>
     <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>796</v>
+        <v>516</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>787</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5044,19 +5082,19 @@
     </row>
     <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>797</v>
+        <v>516</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5064,19 +5102,19 @@
     </row>
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>798</v>
+        <v>516</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>831</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5084,19 +5122,19 @@
     </row>
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>799</v>
+        <v>516</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>789</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5104,19 +5142,19 @@
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>800</v>
+        <v>516</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>790</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -5124,19 +5162,19 @@
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>801</v>
+        <v>516</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5144,19 +5182,19 @@
     </row>
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>802</v>
+        <v>516</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>792</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -5164,19 +5202,19 @@
     </row>
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>803</v>
+        <v>516</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>793</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -5184,19 +5222,19 @@
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>804</v>
+        <v>516</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>794</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -5204,19 +5242,19 @@
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>805</v>
+        <v>516</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>795</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -5224,19 +5262,19 @@
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>806</v>
+        <v>516</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>796</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -5244,19 +5282,19 @@
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>807</v>
+        <v>516</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>797</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5264,19 +5302,19 @@
     </row>
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>808</v>
+        <v>516</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>798</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -5284,19 +5322,19 @@
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>809</v>
+        <v>516</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>799</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -5304,19 +5342,19 @@
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>685</v>
+        <v>462</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>810</v>
+        <v>516</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -5324,19 +5362,19 @@
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>811</v>
+        <v>516</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>801</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -5344,19 +5382,19 @@
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>812</v>
+        <v>516</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>802</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5364,19 +5402,19 @@
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>813</v>
+        <v>516</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>803</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -5384,37 +5422,39 @@
     </row>
     <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>473</v>
+        <v>281</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>804</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>528</v>
+        <v>644</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>814</v>
+        <v>516</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -5422,19 +5462,19 @@
     </row>
     <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>285</v>
+        <v>682</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>815</v>
+        <v>516</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>806</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -5442,19 +5482,19 @@
     </row>
     <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>816</v>
+        <v>516</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>807</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -5462,19 +5502,19 @@
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>566</v>
+        <v>647</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>817</v>
+        <v>516</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>808</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -5482,19 +5522,19 @@
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>567</v>
+        <v>648</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>818</v>
+        <v>516</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>809</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -5502,19 +5542,19 @@
     </row>
     <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>819</v>
+        <v>516</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>836</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -5522,19 +5562,19 @@
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>820</v>
+        <v>516</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>810</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -5542,19 +5582,19 @@
     </row>
     <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>673</v>
+        <v>284</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>821</v>
+        <v>516</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -5562,19 +5602,19 @@
     </row>
     <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>822</v>
+        <v>516</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -5582,73 +5622,79 @@
     </row>
     <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>813</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E122" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>814</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="D123" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E123" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>106</v>
+        <v>537</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>823</v>
+        <v>516</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>816</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -5656,19 +5702,19 @@
     </row>
     <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>105</v>
+        <v>538</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>100</v>
+        <v>670</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>824</v>
+        <v>516</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>817</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -5676,19 +5722,19 @@
     </row>
     <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>825</v>
+        <v>516</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>818</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -5696,19 +5742,19 @@
     </row>
     <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>658</v>
+        <v>540</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>267</v>
+        <v>288</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>826</v>
+        <v>516</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>847</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -5716,19 +5762,19 @@
     </row>
     <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>660</v>
+        <v>106</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>827</v>
+        <v>516</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>819</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -5736,55 +5782,59 @@
     </row>
     <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>661</v>
+        <v>105</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>269</v>
+        <v>96</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>820</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>537</v>
+        <v>107</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>298</v>
+        <v>96</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E130" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>821</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>91</v>
+        <v>656</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>828</v>
+        <v>516</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>822</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -5792,19 +5842,19 @@
     </row>
     <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>95</v>
+        <v>658</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>829</v>
+        <v>516</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>823</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -5812,19 +5862,19 @@
     </row>
     <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>538</v>
+        <v>659</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>299</v>
+        <v>269</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>830</v>
+        <v>516</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>841</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -5832,19 +5882,19 @@
     </row>
     <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>558</v>
+        <v>91</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>391</v>
+        <v>92</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>831</v>
+        <v>516</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>824</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5852,54 +5902,60 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>692</v>
+        <v>95</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>838</v>
+        <v>92</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>556</v>
+        <v>111</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E135" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>825</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>677</v>
+        <v>536</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>838</v>
+        <v>389</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>676</v>
+        <v>297</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E136" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>826</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>838</v>
+        <v>389</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>699</v>
+        <v>298</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E137" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>827</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -5916,13 +5972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82114840-D598-4DC9-A4FB-2D6ADA307DFB}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="B2:B4 F2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -5937,7 +5993,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5975,32 +6031,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>695</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G2" s="2">
         <v>2017</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,32 +6064,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G3" s="2">
         <v>2017</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,308 +6097,308 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G4" s="2">
         <v>2011</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G5" s="2">
         <v>2002</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G6" s="2">
         <v>2014</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>186</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G8" s="2">
         <v>2011</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G9" s="2">
         <v>2012</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G10" s="2">
         <v>1977</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>171</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>186</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G12" s="2">
         <v>1995</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6969,7 +7025,7 @@
         <v>148</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7002,7 +7058,7 @@
         <v>103</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7035,7 +7091,7 @@
         <v>63</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,7 +7124,7 @@
         <v>63</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7101,7 +7157,7 @@
         <v>63</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,13 +7184,13 @@
         <v>202</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7165,7 +7221,7 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7254,7 @@
         <v>171</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7231,7 +7287,7 @@
         <v>173</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7320,7 @@
         <v>173</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,7 +7353,7 @@
         <v>173</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7330,7 +7386,7 @@
         <v>173</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7363,7 +7419,7 @@
         <v>180</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7396,7 +7452,7 @@
         <v>182</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7429,7 +7485,7 @@
         <v>103</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7460,7 +7516,7 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7487,26 +7543,26 @@
         <v>213</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>232</v>
@@ -7515,31 +7571,31 @@
         <v>233</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>234</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>235</v>
@@ -7548,31 +7604,31 @@
         <v>233</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>234</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>236</v>
@@ -7581,31 +7637,31 @@
         <v>233</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>234</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>237</v>
@@ -7614,31 +7670,31 @@
         <v>48</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>238</v>
@@ -7647,31 +7703,31 @@
         <v>48</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>239</v>
@@ -7680,31 +7736,31 @@
         <v>42</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>240</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>241</v>
@@ -7713,31 +7769,31 @@
         <v>1988</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>242</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>243</v>
@@ -7746,31 +7802,31 @@
         <v>50</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>244</v>
@@ -7779,31 +7835,31 @@
         <v>103</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>245</v>
@@ -7812,31 +7868,31 @@
         <v>43</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>246</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>247</v>
@@ -7845,31 +7901,31 @@
         <v>248</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>250</v>
@@ -7878,31 +7934,31 @@
         <v>248</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>251</v>
@@ -7911,31 +7967,31 @@
         <v>248</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>252</v>
@@ -7944,31 +8000,31 @@
         <v>48</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>253</v>
@@ -7977,31 +8033,31 @@
         <v>48</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>258</v>
@@ -8010,31 +8066,31 @@
         <v>1984</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>259</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>260</v>
@@ -8043,31 +8099,31 @@
         <v>1989</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>261</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>262</v>
@@ -8076,31 +8132,31 @@
         <v>2000</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>263</v>
@@ -8109,31 +8165,31 @@
         <v>2007</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>264</v>
@@ -8142,1772 +8198,1772 @@
         <v>2013</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G68" s="2">
         <v>2018</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>152</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="H70" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G71" s="9">
         <v>1979</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G72" s="9">
         <v>2015</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G73" s="9">
         <v>2017</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G74" s="9">
         <v>2016</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G75" s="9">
         <v>2011</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G76" s="9">
         <v>1977</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G77" s="9">
         <v>1977</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>246</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G78" s="9">
         <v>1979</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G79" s="9">
         <v>1986</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G80" s="9">
         <v>1986</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>259</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G81" s="9">
         <v>1988</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G82" s="2">
         <v>1993</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G83" s="9">
         <v>1993</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G84" s="9">
         <v>1993</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>101</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G85" s="2">
         <v>1993</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G86" s="9">
         <v>2001</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G87" s="9">
         <v>2003</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G88" s="9">
         <v>2003</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G89" s="9">
         <v>2004</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G90" s="9">
         <v>2004</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G91" s="9">
         <v>2006</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G92" s="9">
         <v>2006</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G93" s="9">
         <v>2006</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G94" s="9">
         <v>2006</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G95" s="9">
         <v>2006</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G96" s="9">
         <v>2006</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G97" s="9">
         <v>2006</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G98" s="9">
         <v>2006</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G99" s="9">
         <v>2006</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G100" s="9">
         <v>2006</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G101" s="9">
         <v>2006</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G102" s="9">
         <v>2006</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G103" s="9">
         <v>2006</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G104" s="9">
         <v>2006</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G105" s="9">
         <v>2006</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G106" s="9">
         <v>2006</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G107" s="9">
         <v>2006</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G108" s="9">
         <v>2006</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G109" s="9">
         <v>2007</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G110" s="9">
         <v>2008</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G111" s="9">
         <v>2009</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G112" s="9">
         <v>2010</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G113" s="9">
         <v>2010</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G114" s="9">
         <v>2010</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G115" s="9">
         <v>2012</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G116" s="9">
         <v>2016</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G117" s="9">
         <v>1997</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G118" s="9">
         <v>2003</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G119" s="9">
         <v>2010</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="G120" s="9">
         <v>1983</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>239</v>
@@ -9916,214 +9972,214 @@
         <v>2000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G123" s="2">
         <v>1977</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>171</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G124" s="9">
         <v>2010</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G125" s="9">
         <v>2016</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G126" s="9">
         <v>2020</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G127" s="9">
         <v>2021</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,98 +10280,98 @@
     <row r="131" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G133" s="9">
         <v>2020</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10385,67 +10441,67 @@
     <row r="136" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G136" s="9">
         <v>1993</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G137" s="9">
         <v>2009</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -10467,7 +10523,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10510,103 +10566,103 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F2" s="2">
         <v>2014</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F3" s="2">
         <v>1977</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F4" s="2">
         <v>2017</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F5" s="2">
         <v>2017</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>255</v>
@@ -10614,51 +10670,51 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F6" s="2">
         <v>2012</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>695</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F7" s="2">
         <v>2017</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>255</v>
@@ -10666,106 +10722,106 @@
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>186</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F9" s="2">
         <v>2011</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>186</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F11" s="2">
         <v>2011</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -10781,7 +10837,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10811,10 +10867,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>24</v>
@@ -10876,7 +10932,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>262</v>
@@ -10889,15 +10945,15 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C6" s="2">
         <v>2017</v>
@@ -10943,7 +10999,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10961,12 +11017,12 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>241</v>
@@ -10979,7 +11035,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10997,7 +11053,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11022,10 +11078,10 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
@@ -11035,15 +11091,15 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C14" s="2">
         <v>2017</v>
@@ -11053,15 +11109,15 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C15" s="2">
         <v>2017</v>
@@ -11071,7 +11127,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11089,7 +11145,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11107,12 +11163,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>258</v>
@@ -11125,15 +11181,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C19" s="2">
         <v>1995</v>
@@ -11143,15 +11199,15 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C20" s="2">
         <v>2017</v>
@@ -11161,15 +11217,15 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C21" s="2">
         <v>2020</v>
@@ -11179,15 +11235,15 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="2">
         <v>2017</v>
@@ -11197,15 +11253,15 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C23" s="2">
         <v>2006</v>
@@ -11215,7 +11271,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -11254,15 +11310,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009354335BECF21B40B6CCFAE91E076EEB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f4b830dfecf6061f9c2f158602f72e0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ef70f3-4e3d-42be-bd40-fbc1cacc1519" xmlns:ns3="5b799ec2-212c-48b5-b7ff-d14ec6cbce2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fe52fe2046ef56e6781bed47a58eb8b" ns2:_="" ns3:_="">
     <xsd:import namespace="f8ef70f3-4e3d-42be-bd40-fbc1cacc1519"/>
@@ -11505,6 +11552,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74AFA1-8A91-473D-AA72-8672045781D7}">
   <ds:schemaRefs>
@@ -11523,14 +11579,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA263CE-A007-4E5F-8676-2683AA6D3BCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CD8CDF-1B85-494D-B986-B14702222E55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11547,4 +11595,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA263CE-A007-4E5F-8676-2683AA6D3BCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unesco.sharepoint.com/sites/MontevideoTeam/Shared Documents/MaB/00.Database/1.MaB-API/MaB-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1131" documentId="8_{0D84168F-6C97-4B71-9D33-29523ED29034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CCBEAD-FD33-47A8-80B9-F2A364AA84A7}"/>
+  <xr:revisionPtr revIDLastSave="1134" documentId="8_{0D84168F-6C97-4B71-9D33-29523ED29034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087E6374-F065-4303-A1CF-1E8BD66E9B48}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" activeTab="1" xr2:uid="{85CD61FC-0185-45B9-BBE6-1C74E6F4F638}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85CD61FC-0185-45B9-BBE6-1C74E6F4F638}"/>
   </bookViews>
   <sheets>
     <sheet name="available_lst" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="850">
   <si>
     <t>id</t>
   </si>
@@ -2585,6 +2585,9 @@
   </si>
   <si>
     <t>/IberoAmericaMAB/surface/WITHDRAW/MEX-Islas_Del_Golfo_De_California.geojson</t>
+  </si>
+  <si>
+    <t>Withdraw in 2020</t>
   </si>
 </sst>
 </file>
@@ -2687,15 +2690,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2808,6 +2802,15 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2842,68 +2845,68 @@
     <tableColumn id="1" xr3:uid="{31D6180E-CD56-41CE-AA77-F64999A8E024}" name="id" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{88B7A4E9-9D81-4869-B0BA-27D4F1E534D6}" name="country" dataDxfId="39"/>
     <tableColumn id="3" xr3:uid="{B63687E4-4798-4C9B-822B-797895EC75C1}" name="br_name" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3921AE67-CDB0-45FC-B792-B73A520BE3B0}" name="geojson_surface" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5E4A03E4-95CE-4932-ADEA-694E5B8ED7BE}" name="surface_file_location" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{97CC4F7A-D6C6-4D5A-9E04-BB6FA6550518}" name="geojson_core" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{76576057-7CF0-41D9-9125-7899A1DB1C95}" name="geojson_buffer" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{B6A0DD57-B933-43DC-BC0A-C340D94FF0FC}" name="comment" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{3921AE67-CDB0-45FC-B792-B73A520BE3B0}" name="geojson_surface" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{5E4A03E4-95CE-4932-ADEA-694E5B8ED7BE}" name="surface_file_location" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{97CC4F7A-D6C6-4D5A-9E04-BB6FA6550518}" name="geojson_core" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{76576057-7CF0-41D9-9125-7899A1DB1C95}" name="geojson_buffer" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B6A0DD57-B933-43DC-BC0A-C340D94FF0FC}" name="comment" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}" name="Table3" displayName="Table3" ref="A1:K137" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}" name="Table3" displayName="Table3" ref="A1:K137" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:K137" xr:uid="{0910542C-EA3A-4BF2-9103-F97D91704A02}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
     <sortCondition ref="A1:A137"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" xr3:uid="{5EFDF94E-758C-4ECF-9E1E-BFA9871CE014}" name="status" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{770D4E21-9A0B-47DD-8DF5-E4304D959315}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{02E8B95F-8B50-4DB8-9FC1-4AD35772B144}" name="country" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{E97E4F7C-CA5F-4124-A9A9-8692216C7BB4}" name="iso2c" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{94F79DF6-66D0-42A0-8D28-F20A9FF47A6F}" name="iso3c" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{4C4EEF9C-D388-428D-A24C-0629A9447E3A}" name="name" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{68C0B232-8561-4059-A5E3-4A45760254F2}" name="designated_year" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{7FDCC376-33B1-456B-AC81-1C7A4952D958}" name="unesco_url" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{0333D1A1-7B00-463A-9B93-17B6A2B16FEF}" name="handle" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{6D0F62AB-EE01-42EE-989F-4400D6328D5D}" name="periodic_reviews_available" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{B28AEA32-51EC-48C5-9BA6-EF26AC6E7D8A}" name="lastupdate_date" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{5EFDF94E-758C-4ECF-9E1E-BFA9871CE014}" name="status" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{770D4E21-9A0B-47DD-8DF5-E4304D959315}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{02E8B95F-8B50-4DB8-9FC1-4AD35772B144}" name="country" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{E97E4F7C-CA5F-4124-A9A9-8692216C7BB4}" name="iso2c" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{94F79DF6-66D0-42A0-8D28-F20A9FF47A6F}" name="iso3c" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4C4EEF9C-D388-428D-A24C-0629A9447E3A}" name="name" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{68C0B232-8561-4059-A5E3-4A45760254F2}" name="designated_year" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{7FDCC376-33B1-456B-AC81-1C7A4952D958}" name="unesco_url" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{0333D1A1-7B00-463A-9B93-17B6A2B16FEF}" name="handle" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{6D0F62AB-EE01-42EE-989F-4400D6328D5D}" name="periodic_reviews_available" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{B28AEA32-51EC-48C5-9BA6-EF26AC6E7D8A}" name="lastupdate_date" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}" name="Table4" displayName="Table4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}" name="Table4" displayName="Table4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:H11" xr:uid="{0AE299EC-B7D0-48E0-B3DD-2D0A91C1B68D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9B819798-564C-412D-A4B0-1108C26DC434}" name="id" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{CA8C1EB9-A593-4DB1-A357-D84BFA7C788D}" name="country" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4EE7F5F0-D781-49AF-B4EC-4A1A8E5E913D}" name="iso2c" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{4DD2419C-5216-4D5A-89E0-185C9B8C194B}" name="iso3c" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{207933B0-0BC5-4740-8D0A-3035C3F1C3C6}" name="name" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B103807B-5A73-426D-9073-48F568716524}" name="year" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{8ECC6FAA-E805-4DE1-97BD-31C0C5EED76B}" name="transboundary" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D02D9751-A22B-46DC-8BD5-66A6AAAE15C6}" name="comment" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{9B819798-564C-412D-A4B0-1108C26DC434}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CA8C1EB9-A593-4DB1-A357-D84BFA7C788D}" name="country" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4EE7F5F0-D781-49AF-B4EC-4A1A8E5E913D}" name="iso2c" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4DD2419C-5216-4D5A-89E0-185C9B8C194B}" name="iso3c" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{207933B0-0BC5-4740-8D0A-3035C3F1C3C6}" name="name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B103807B-5A73-426D-9073-48F568716524}" name="year" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8ECC6FAA-E805-4DE1-97BD-31C0C5EED76B}" name="transboundary" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D02D9751-A22B-46DC-8BD5-66A6AAAE15C6}" name="comment" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H23" xr:uid="{C3672DE5-898C-4457-BE21-7DB347AC1C86}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6D02B61A-B373-44F5-9078-F38DB1F4F060}" name="id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{808668E7-3AAD-42AC-8DCE-7EBA1725DEF3}" name="name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1D013C41-AD67-44AF-95D9-85F43F6FDA94}" name="year" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{ACA2396B-471B-469E-9973-ACBB30A8F4B0}" name="sheet" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{916D6E94-F2C1-4887-AD7F-83009D1229BA}" name="key" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{EA2D7BCD-DFD9-4C2F-BBCD-08B0D8BBB01A}" name="old_value" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{61B28554-9F4D-42CF-83E2-9EF0145636B4}" name="new_value" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6429DE8E-968A-4A34-8259-AEBA06A1520F}" name="comment" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6D02B61A-B373-44F5-9078-F38DB1F4F060}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{808668E7-3AAD-42AC-8DCE-7EBA1725DEF3}" name="name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1D013C41-AD67-44AF-95D9-85F43F6FDA94}" name="year" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{ACA2396B-471B-469E-9973-ACBB30A8F4B0}" name="sheet" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{916D6E94-F2C1-4887-AD7F-83009D1229BA}" name="key" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EA2D7BCD-DFD9-4C2F-BBCD-08B0D8BBB01A}" name="old_value" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{61B28554-9F4D-42CF-83E2-9EF0145636B4}" name="new_value" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6429DE8E-968A-4A34-8259-AEBA06A1520F}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3208,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838904C7-54E8-4955-ACB3-A4B3D91077CE}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,59 +3363,63 @@
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>705</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>848</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3420,19 +3427,19 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3440,19 +3447,19 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3460,19 +3467,19 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3480,19 +3487,19 @@
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3500,19 +3507,19 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3520,19 +3527,19 @@
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3540,19 +3547,19 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3560,19 +3567,19 @@
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3580,19 +3587,19 @@
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3600,19 +3607,19 @@
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3620,19 +3627,19 @@
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3640,19 +3647,19 @@
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3660,19 +3667,19 @@
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3680,19 +3687,19 @@
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3700,41 +3707,39 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>828</v>
+        <v>733</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>518</v>
-      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3742,19 +3747,19 @@
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3762,19 +3767,19 @@
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3782,19 +3787,19 @@
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3802,19 +3807,19 @@
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3822,19 +3827,19 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3842,19 +3847,19 @@
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>172</v>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>837</v>
+        <v>740</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3862,19 +3867,19 @@
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>174</v>
+      <c r="C33" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3882,19 +3887,19 @@
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3902,19 +3907,19 @@
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3922,19 +3927,19 @@
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3942,19 +3947,19 @@
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3962,19 +3967,19 @@
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3982,19 +3987,19 @@
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4002,19 +4007,19 @@
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4022,19 +4027,19 @@
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4042,19 +4047,19 @@
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4062,19 +4067,19 @@
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4082,19 +4087,19 @@
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4102,19 +4107,19 @@
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4122,19 +4127,19 @@
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>519</v>
+        <v>357</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4142,19 +4147,19 @@
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4162,19 +4167,19 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -4182,19 +4187,19 @@
     </row>
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>244</v>
+      <c r="C49" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>833</v>
+        <v>756</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4202,19 +4207,19 @@
     </row>
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>757</v>
+        <v>833</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4222,19 +4227,19 @@
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4242,19 +4247,19 @@
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4262,19 +4267,19 @@
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4282,19 +4287,19 @@
     </row>
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4302,19 +4307,19 @@
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4322,19 +4327,19 @@
     </row>
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>689</v>
+        <v>424</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>832</v>
+        <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>554</v>
+        <v>253</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>845</v>
+        <v>762</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4342,10 +4347,10 @@
     </row>
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>552</v>
+        <v>689</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>254</v>
+        <v>832</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>554</v>
@@ -4354,7 +4359,7 @@
         <v>516</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>763</v>
+        <v>845</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4362,19 +4367,19 @@
     </row>
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>674</v>
+        <v>552</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>832</v>
+        <v>254</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>673</v>
+        <v>554</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>840</v>
+        <v>763</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4382,19 +4387,19 @@
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>524</v>
+        <v>674</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>257</v>
+        <v>832</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>258</v>
+        <v>673</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>764</v>
+        <v>840</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4402,19 +4407,19 @@
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4422,19 +4427,19 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4442,19 +4447,19 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>839</v>
+        <v>766</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -4462,19 +4467,19 @@
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>264</v>
+      <c r="C63" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4482,19 +4487,19 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>544</v>
+      <c r="C64" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4502,19 +4507,19 @@
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>265</v>
+        <v>544</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4522,19 +4527,19 @@
     </row>
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>697</v>
+        <v>532</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>832</v>
+        <v>257</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>696</v>
+        <v>265</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4542,19 +4547,19 @@
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>270</v>
+        <v>832</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>271</v>
+        <v>696</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>767</v>
+        <v>844</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4562,19 +4567,19 @@
     </row>
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4582,19 +4587,19 @@
     </row>
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>696</v>
+      <c r="C69" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4602,19 +4607,19 @@
     </row>
     <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>769</v>
+        <v>843</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4622,19 +4627,19 @@
     </row>
     <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>696</v>
+      <c r="C71" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>842</v>
+        <v>769</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4642,19 +4647,19 @@
     </row>
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>278</v>
+      <c r="C72" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>770</v>
+        <v>842</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4662,19 +4667,19 @@
     </row>
     <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>279</v>
+      <c r="C73" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>834</v>
+        <v>770</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4682,19 +4687,19 @@
     </row>
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>525</v>
+        <v>655</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>694</v>
+        <v>280</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -4702,19 +4707,19 @@
     </row>
     <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>295</v>
+        <v>694</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4722,59 +4727,59 @@
     </row>
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>425</v>
+        <v>383</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>427</v>
+      <c r="C77" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="F77" s="3"/>
+        <v>835</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4782,19 +4787,19 @@
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4802,19 +4807,19 @@
     </row>
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4822,19 +4827,19 @@
     </row>
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4842,19 +4847,19 @@
     </row>
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4862,19 +4867,19 @@
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4882,19 +4887,19 @@
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4902,19 +4907,19 @@
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4922,21 +4927,21 @@
     </row>
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>705</v>
+        <v>617</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="F86" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
@@ -5972,7 +5977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82114840-D598-4DC9-A4FB-2D6ADA307DFB}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
